--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_100ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_100ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2977,28 +2977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2518.016507119703</v>
+        <v>2622.161349165512</v>
       </c>
       <c r="AB2" t="n">
-        <v>3445.261272089539</v>
+        <v>3587.756839522786</v>
       </c>
       <c r="AC2" t="n">
-        <v>3116.450371735747</v>
+        <v>3245.346362206946</v>
       </c>
       <c r="AD2" t="n">
-        <v>2518016.507119704</v>
+        <v>2622161.349165512</v>
       </c>
       <c r="AE2" t="n">
-        <v>3445261.272089539</v>
+        <v>3587756.839522786</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.02833932948552e-06</v>
+        <v>1.738458658786226e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.70416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3116450.371735747</v>
+        <v>3245346.362206946</v>
       </c>
     </row>
     <row r="3">
@@ -3083,28 +3083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>839.0483556110795</v>
+        <v>891.035525287963</v>
       </c>
       <c r="AB3" t="n">
-        <v>1148.022976348057</v>
+        <v>1219.154115412027</v>
       </c>
       <c r="AC3" t="n">
-        <v>1038.457274745764</v>
+        <v>1102.79975773065</v>
       </c>
       <c r="AD3" t="n">
-        <v>839048.3556110795</v>
+        <v>891035.525287963</v>
       </c>
       <c r="AE3" t="n">
-        <v>1148022.976348057</v>
+        <v>1219154.115412027</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.938074619409156e-06</v>
+        <v>3.276411304011208e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.45416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1038457.274745764</v>
+        <v>1102799.75773065</v>
       </c>
     </row>
     <row r="4">
@@ -3189,28 +3189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>624.4697584630964</v>
+        <v>676.4568386314288</v>
       </c>
       <c r="AB4" t="n">
-        <v>854.427073190595</v>
+        <v>925.5580897850169</v>
       </c>
       <c r="AC4" t="n">
-        <v>772.8817525212128</v>
+        <v>837.2241247248719</v>
       </c>
       <c r="AD4" t="n">
-        <v>624469.7584630963</v>
+        <v>676456.8386314288</v>
       </c>
       <c r="AE4" t="n">
-        <v>854427.073190595</v>
+        <v>925558.089785017</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.273900571526572e-06</v>
+        <v>3.84414173847367e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.91111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>772881.7525212128</v>
+        <v>837224.1247248719</v>
       </c>
     </row>
     <row r="5">
@@ -3295,28 +3295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>536.8436924141463</v>
+        <v>578.4163778864491</v>
       </c>
       <c r="AB5" t="n">
-        <v>734.5332238332212</v>
+        <v>791.4148061538677</v>
       </c>
       <c r="AC5" t="n">
-        <v>664.4304038744324</v>
+        <v>715.8832878121985</v>
       </c>
       <c r="AD5" t="n">
-        <v>536843.6924141463</v>
+        <v>578416.3778864491</v>
       </c>
       <c r="AE5" t="n">
-        <v>734533.2238332212</v>
+        <v>791414.8061538677</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.454651377205755e-06</v>
+        <v>4.149709943642649e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.254166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>664430.4038744324</v>
+        <v>715883.2878121985</v>
       </c>
     </row>
     <row r="6">
@@ -3401,28 +3401,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>481.3717435133757</v>
+        <v>533.2734828271366</v>
       </c>
       <c r="AB6" t="n">
-        <v>658.6340560975196</v>
+        <v>729.6483055697441</v>
       </c>
       <c r="AC6" t="n">
-        <v>595.7749461822754</v>
+        <v>660.0116953539955</v>
       </c>
       <c r="AD6" t="n">
-        <v>481371.7435133758</v>
+        <v>533273.4828271366</v>
       </c>
       <c r="AE6" t="n">
-        <v>658634.0560975197</v>
+        <v>729648.3055697441</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.543786762411551e-06</v>
+        <v>4.300397734892242e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.965277777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>595774.9461822753</v>
+        <v>660011.6953539955</v>
       </c>
     </row>
     <row r="7">
@@ -3507,28 +3507,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>482.0969402146409</v>
+        <v>533.9986795284018</v>
       </c>
       <c r="AB7" t="n">
-        <v>659.6263022176113</v>
+        <v>730.6405516898355</v>
       </c>
       <c r="AC7" t="n">
-        <v>596.6724937252915</v>
+        <v>660.9092428970118</v>
       </c>
       <c r="AD7" t="n">
-        <v>482096.9402146409</v>
+        <v>533998.6795284018</v>
       </c>
       <c r="AE7" t="n">
-        <v>659626.3022176112</v>
+        <v>730640.5516898355</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.544516184549077e-06</v>
+        <v>4.301630859206887e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.962499999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>596672.4937252915</v>
+        <v>660909.2428970118</v>
       </c>
     </row>
     <row r="8">
@@ -3613,28 +3613,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>482.6718943386011</v>
+        <v>534.5736336523621</v>
       </c>
       <c r="AB8" t="n">
-        <v>660.4129798151995</v>
+        <v>731.4272292874238</v>
       </c>
       <c r="AC8" t="n">
-        <v>597.3840919170748</v>
+        <v>661.6208410887951</v>
       </c>
       <c r="AD8" t="n">
-        <v>482671.8943386012</v>
+        <v>534573.6336523622</v>
       </c>
       <c r="AE8" t="n">
-        <v>660412.9798151995</v>
+        <v>731427.2292874238</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.548892717374239e-06</v>
+        <v>4.309029605094755e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.949999999999999</v>
       </c>
       <c r="AH8" t="n">
-        <v>597384.0919170748</v>
+        <v>661620.8410887951</v>
       </c>
     </row>
   </sheetData>
@@ -3910,28 +3910,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1504.763165534684</v>
+        <v>1585.317116084973</v>
       </c>
       <c r="AB2" t="n">
-        <v>2058.883348550167</v>
+        <v>2169.100817482557</v>
       </c>
       <c r="AC2" t="n">
-        <v>1862.386411425467</v>
+        <v>1962.084879814139</v>
       </c>
       <c r="AD2" t="n">
-        <v>1504763.165534684</v>
+        <v>1585317.116084973</v>
       </c>
       <c r="AE2" t="n">
-        <v>2058883.348550167</v>
+        <v>2169100.817482557</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.361860562478142e-06</v>
+        <v>2.358457875545516e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.39166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1862386.411425467</v>
+        <v>1962084.879814139</v>
       </c>
     </row>
     <row r="3">
@@ -4016,28 +4016,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>642.3483702816919</v>
+        <v>692.8012095009925</v>
       </c>
       <c r="AB3" t="n">
-        <v>878.8893786294839</v>
+        <v>947.9211790715067</v>
       </c>
       <c r="AC3" t="n">
-        <v>795.0094098620754</v>
+        <v>857.4529121566521</v>
       </c>
       <c r="AD3" t="n">
-        <v>642348.3702816919</v>
+        <v>692801.2095009926</v>
       </c>
       <c r="AE3" t="n">
-        <v>878889.3786294839</v>
+        <v>947921.1790715067</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.204873982469599e-06</v>
+        <v>3.818380935474289e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.506944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>795009.4098620754</v>
+        <v>857452.9121566521</v>
       </c>
     </row>
     <row r="4">
@@ -4122,28 +4122,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>493.1911524245137</v>
+        <v>533.4681724539337</v>
       </c>
       <c r="AB4" t="n">
-        <v>674.8058928052588</v>
+        <v>729.9146885062279</v>
       </c>
       <c r="AC4" t="n">
-        <v>610.4033654919432</v>
+        <v>660.2526550768921</v>
       </c>
       <c r="AD4" t="n">
-        <v>493191.1524245137</v>
+        <v>533468.1724539336</v>
       </c>
       <c r="AE4" t="n">
-        <v>674805.8928052589</v>
+        <v>729914.6885062279</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.511684989065128e-06</v>
+        <v>4.349713477693264e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.344444444444443</v>
       </c>
       <c r="AH4" t="n">
-        <v>610403.3654919432</v>
+        <v>660252.6550768921</v>
       </c>
     </row>
     <row r="5">
@@ -4228,28 +4228,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>458.225608538681</v>
+        <v>498.502628568101</v>
       </c>
       <c r="AB5" t="n">
-        <v>626.9644930897356</v>
+        <v>682.0732887907045</v>
       </c>
       <c r="AC5" t="n">
-        <v>567.1278818194431</v>
+        <v>616.9771714043922</v>
       </c>
       <c r="AD5" t="n">
-        <v>458225.608538681</v>
+        <v>498502.628568101</v>
       </c>
       <c r="AE5" t="n">
-        <v>626964.4930897356</v>
+        <v>682073.2887907046</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.593782966235796e-06</v>
+        <v>4.49189001628998e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.080555555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>567127.8818194431</v>
+        <v>616977.1714043921</v>
       </c>
     </row>
     <row r="6">
@@ -4334,28 +4334,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>460.0736502862245</v>
+        <v>500.3506703156444</v>
       </c>
       <c r="AB6" t="n">
-        <v>629.4930653385723</v>
+        <v>684.6018610395413</v>
       </c>
       <c r="AC6" t="n">
-        <v>569.4151306817242</v>
+        <v>619.2644202666734</v>
       </c>
       <c r="AD6" t="n">
-        <v>460073.6502862245</v>
+        <v>500350.6703156444</v>
       </c>
       <c r="AE6" t="n">
-        <v>629493.0653385723</v>
+        <v>684601.8610395413</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.593933881635008e-06</v>
+        <v>4.492151370221224e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.080555555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>569415.1306817243</v>
+        <v>619264.4202666733</v>
       </c>
     </row>
     <row r="7">
@@ -4440,28 +4440,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>460.9577602390992</v>
+        <v>501.2347802685191</v>
       </c>
       <c r="AB7" t="n">
-        <v>630.7027435802738</v>
+        <v>685.8115392812427</v>
       </c>
       <c r="AC7" t="n">
-        <v>570.5093589298319</v>
+        <v>620.358648514781</v>
       </c>
       <c r="AD7" t="n">
-        <v>460957.7602390992</v>
+        <v>501234.7802685191</v>
       </c>
       <c r="AE7" t="n">
-        <v>630702.7435802738</v>
+        <v>685811.5392812428</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.598008597413699e-06</v>
+        <v>4.499207926364811e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.068055555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>570509.3589298319</v>
+        <v>620358.6485147809</v>
       </c>
     </row>
   </sheetData>
@@ -4737,28 +4737,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>450.3355986312922</v>
+        <v>495.9124266948691</v>
       </c>
       <c r="AB2" t="n">
-        <v>616.1690334517756</v>
+        <v>678.529260316107</v>
       </c>
       <c r="AC2" t="n">
-        <v>557.3627256978073</v>
+        <v>613.7713800333349</v>
       </c>
       <c r="AD2" t="n">
-        <v>450335.5986312922</v>
+        <v>495912.4266948691</v>
       </c>
       <c r="AE2" t="n">
-        <v>616169.0334517756</v>
+        <v>678529.260316107</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.457455370357877e-06</v>
+        <v>4.650034379849047e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.518055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>557362.7256978073</v>
+        <v>613771.3800333349</v>
       </c>
     </row>
     <row r="3">
@@ -4843,28 +4843,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>393.1577356334065</v>
+        <v>438.6492228424117</v>
       </c>
       <c r="AB3" t="n">
-        <v>537.9357587887827</v>
+        <v>600.1792185309163</v>
       </c>
       <c r="AC3" t="n">
-        <v>486.5959249675598</v>
+        <v>542.8989562711487</v>
       </c>
       <c r="AD3" t="n">
-        <v>393157.7356334065</v>
+        <v>438649.2228424117</v>
       </c>
       <c r="AE3" t="n">
-        <v>537935.7587887826</v>
+        <v>600179.2185309163</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.618276988852482e-06</v>
+        <v>4.95434348919982e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.933333333333332</v>
       </c>
       <c r="AH3" t="n">
-        <v>486595.9249675598</v>
+        <v>542898.9562711486</v>
       </c>
     </row>
     <row r="4">
@@ -4949,28 +4949,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>395.9354165690498</v>
+        <v>441.426903778055</v>
       </c>
       <c r="AB4" t="n">
-        <v>541.736304387564</v>
+        <v>603.9797641296977</v>
       </c>
       <c r="AC4" t="n">
-        <v>490.0337518284928</v>
+        <v>546.3367831320816</v>
       </c>
       <c r="AD4" t="n">
-        <v>395935.4165690498</v>
+        <v>441426.903778055</v>
       </c>
       <c r="AE4" t="n">
-        <v>541736.3043875641</v>
+        <v>603979.7641296977</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.618276988852482e-06</v>
+        <v>4.95434348919982e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.933333333333332</v>
       </c>
       <c r="AH4" t="n">
-        <v>490033.7518284928</v>
+        <v>546336.7831320816</v>
       </c>
     </row>
   </sheetData>
@@ -5246,28 +5246,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>714.6735927475424</v>
+        <v>762.1568361509558</v>
       </c>
       <c r="AB2" t="n">
-        <v>977.8479387708828</v>
+        <v>1042.816607208287</v>
       </c>
       <c r="AC2" t="n">
-        <v>884.5235039127907</v>
+        <v>943.2916538186283</v>
       </c>
       <c r="AD2" t="n">
-        <v>714673.5927475424</v>
+        <v>762156.8361509558</v>
       </c>
       <c r="AE2" t="n">
-        <v>977847.9387708828</v>
+        <v>1042816.607208287</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.001860337188826e-06</v>
+        <v>3.646954780779573e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.17777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>884523.5039127907</v>
+        <v>943291.6538186283</v>
       </c>
     </row>
     <row r="3">
@@ -5352,28 +5352,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>412.6852054609938</v>
+        <v>450.5864772308631</v>
       </c>
       <c r="AB3" t="n">
-        <v>564.6541044980553</v>
+        <v>616.512296619691</v>
       </c>
       <c r="AC3" t="n">
-        <v>510.7643092617732</v>
+        <v>557.6732283107498</v>
       </c>
       <c r="AD3" t="n">
-        <v>412685.2054609938</v>
+        <v>450586.4772308631</v>
       </c>
       <c r="AE3" t="n">
-        <v>564654.1044980553</v>
+        <v>616512.2966196911</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.636604400324507e-06</v>
+        <v>4.803320613410469e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.486111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>510764.3092617732</v>
+        <v>557673.2283107497</v>
       </c>
     </row>
     <row r="4">
@@ -5458,28 +5458,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>412.4306864859094</v>
+        <v>450.3319582557787</v>
       </c>
       <c r="AB4" t="n">
-        <v>564.3058604077603</v>
+        <v>616.1640525293959</v>
       </c>
       <c r="AC4" t="n">
-        <v>510.4493010986922</v>
+        <v>557.3582201476687</v>
       </c>
       <c r="AD4" t="n">
-        <v>412430.6864859094</v>
+        <v>450331.9582557787</v>
       </c>
       <c r="AE4" t="n">
-        <v>564305.8604077603</v>
+        <v>616164.0525293959</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.644498425475179e-06</v>
+        <v>4.817701812851818e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.461111111111112</v>
       </c>
       <c r="AH4" t="n">
-        <v>510449.3010986922</v>
+        <v>557358.2201476687</v>
       </c>
     </row>
   </sheetData>
@@ -5755,28 +5755,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>395.2346083051884</v>
+        <v>439.247858140525</v>
       </c>
       <c r="AB2" t="n">
-        <v>540.7774276034703</v>
+        <v>600.9982977557202</v>
       </c>
       <c r="AC2" t="n">
-        <v>489.1663888988809</v>
+        <v>543.6398637243223</v>
       </c>
       <c r="AD2" t="n">
-        <v>395234.6083051884</v>
+        <v>439247.8581405249</v>
       </c>
       <c r="AE2" t="n">
-        <v>540777.4276034703</v>
+        <v>600998.2977557202</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.529187754076742e-06</v>
+        <v>4.956393092513228e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.604166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>489166.3888988809</v>
+        <v>543639.8637243223</v>
       </c>
     </row>
     <row r="3">
@@ -5861,28 +5861,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>396.7779827694563</v>
+        <v>440.791232604793</v>
       </c>
       <c r="AB3" t="n">
-        <v>542.8891406343577</v>
+        <v>603.1100107866076</v>
       </c>
       <c r="AC3" t="n">
-        <v>491.0765630019082</v>
+        <v>545.5500378273495</v>
       </c>
       <c r="AD3" t="n">
-        <v>396777.9827694563</v>
+        <v>440791.232604793</v>
       </c>
       <c r="AE3" t="n">
-        <v>542889.1406343577</v>
+        <v>603110.0107866076</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.535484051645843e-06</v>
+        <v>4.968731807078643e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.580555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>491076.5630019082</v>
+        <v>545550.0378273495</v>
       </c>
     </row>
     <row r="4">
@@ -5967,28 +5967,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>400.1748183847953</v>
+        <v>444.188068220132</v>
       </c>
       <c r="AB4" t="n">
-        <v>547.5368409810753</v>
+        <v>607.7577111333253</v>
       </c>
       <c r="AC4" t="n">
-        <v>495.2806933506236</v>
+        <v>549.7541681760649</v>
       </c>
       <c r="AD4" t="n">
-        <v>400174.8183847953</v>
+        <v>444188.068220132</v>
       </c>
       <c r="AE4" t="n">
-        <v>547536.8409810753</v>
+        <v>607757.7111333254</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.535309154491145e-06</v>
+        <v>4.968389065007381e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.580555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>495280.6933506236</v>
+        <v>549754.168176065</v>
       </c>
     </row>
   </sheetData>
@@ -6264,28 +6264,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1703.489855499498</v>
+        <v>1784.810256073606</v>
       </c>
       <c r="AB2" t="n">
-        <v>2330.789972962828</v>
+        <v>2442.056132631197</v>
       </c>
       <c r="AC2" t="n">
-        <v>2108.342649227528</v>
+        <v>2208.989722780183</v>
       </c>
       <c r="AD2" t="n">
-        <v>1703489.855499498</v>
+        <v>1784810.256073606</v>
       </c>
       <c r="AE2" t="n">
-        <v>2330789.972962828</v>
+        <v>2442056.132631197</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.273949839832381e-06</v>
+        <v>2.191806758460839e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.30555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>2108342.649227528</v>
+        <v>2208989.722780183</v>
       </c>
     </row>
     <row r="3">
@@ -6370,28 +6370,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>687.2000602449779</v>
+        <v>738.0785926950583</v>
       </c>
       <c r="AB3" t="n">
-        <v>940.2574395541618</v>
+        <v>1009.871692254798</v>
       </c>
       <c r="AC3" t="n">
-        <v>850.5205891827167</v>
+        <v>913.4909553098211</v>
       </c>
       <c r="AD3" t="n">
-        <v>687200.0602449778</v>
+        <v>738078.5926950583</v>
       </c>
       <c r="AE3" t="n">
-        <v>940257.4395541619</v>
+        <v>1009871.692254798</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.132572289994121e-06</v>
+        <v>3.669050548120814e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.740277777777777</v>
       </c>
       <c r="AH3" t="n">
-        <v>850520.5891827167</v>
+        <v>913490.9553098211</v>
       </c>
     </row>
     <row r="4">
@@ -6476,28 +6476,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>524.5220057399437</v>
+        <v>565.1395803539875</v>
       </c>
       <c r="AB4" t="n">
-        <v>717.6741485311262</v>
+        <v>773.2489060389856</v>
       </c>
       <c r="AC4" t="n">
-        <v>649.1803350573085</v>
+        <v>699.4511157082796</v>
       </c>
       <c r="AD4" t="n">
-        <v>524522.0057399437</v>
+        <v>565139.5803539875</v>
       </c>
       <c r="AE4" t="n">
-        <v>717674.1485311262</v>
+        <v>773248.9060389856</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.452630127190797e-06</v>
+        <v>4.219704042263358e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.469444444444443</v>
       </c>
       <c r="AH4" t="n">
-        <v>649180.3350573085</v>
+        <v>699451.1157082797</v>
       </c>
     </row>
     <row r="5">
@@ -6582,28 +6582,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>465.7733611252308</v>
+        <v>506.3909357392746</v>
       </c>
       <c r="AB5" t="n">
-        <v>637.2916611619962</v>
+        <v>692.8664186698554</v>
       </c>
       <c r="AC5" t="n">
-        <v>576.4694394651586</v>
+        <v>626.7402201161299</v>
       </c>
       <c r="AD5" t="n">
-        <v>465773.3611252308</v>
+        <v>506390.9357392746</v>
       </c>
       <c r="AE5" t="n">
-        <v>637291.6611619962</v>
+        <v>692866.4186698555</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.582298419176554e-06</v>
+        <v>4.442795901806156e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.044444444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>576469.4394651586</v>
+        <v>626740.2201161298</v>
       </c>
     </row>
     <row r="6">
@@ -6688,28 +6688,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>467.6687620019508</v>
+        <v>508.2863366159946</v>
       </c>
       <c r="AB6" t="n">
-        <v>639.8850322607095</v>
+        <v>695.459789768569</v>
       </c>
       <c r="AC6" t="n">
-        <v>578.8153028660302</v>
+        <v>629.0860835170013</v>
       </c>
       <c r="AD6" t="n">
-        <v>467668.7620019508</v>
+        <v>508286.3366159946</v>
       </c>
       <c r="AE6" t="n">
-        <v>639885.0322607096</v>
+        <v>695459.7897685689</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.581700180228523e-06</v>
+        <v>4.441766642938599e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.045833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>578815.3028660301</v>
+        <v>629086.0835170012</v>
       </c>
     </row>
     <row r="7">
@@ -6794,28 +6794,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>468.320453293836</v>
+        <v>508.9380279078799</v>
       </c>
       <c r="AB7" t="n">
-        <v>640.7767050368577</v>
+        <v>696.3514625447172</v>
       </c>
       <c r="AC7" t="n">
-        <v>579.6218756438932</v>
+        <v>629.8926562948644</v>
       </c>
       <c r="AD7" t="n">
-        <v>468320.453293836</v>
+        <v>508938.0279078798</v>
       </c>
       <c r="AE7" t="n">
-        <v>640776.7050368577</v>
+        <v>696351.4625447171</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.586037412601749e-06</v>
+        <v>4.449228769728382e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.033333333333335</v>
       </c>
       <c r="AH7" t="n">
-        <v>579621.8756438931</v>
+        <v>629892.6562948644</v>
       </c>
     </row>
   </sheetData>
@@ -7091,28 +7091,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>403.7350127256122</v>
+        <v>446.737138794198</v>
       </c>
       <c r="AB2" t="n">
-        <v>552.4080559428702</v>
+        <v>611.2454619498195</v>
       </c>
       <c r="AC2" t="n">
-        <v>499.6870063932579</v>
+        <v>552.909052949722</v>
       </c>
       <c r="AD2" t="n">
-        <v>403735.0127256122</v>
+        <v>446737.138794198</v>
       </c>
       <c r="AE2" t="n">
-        <v>552408.0559428702</v>
+        <v>611245.4619498195</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.44710433413262e-06</v>
+        <v>4.905613096056793e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.15833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>499687.0063932579</v>
+        <v>552909.0529497219</v>
       </c>
     </row>
     <row r="3">
@@ -7197,28 +7197,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>406.881040924651</v>
+        <v>449.8831669932368</v>
       </c>
       <c r="AB3" t="n">
-        <v>556.7125905177636</v>
+        <v>615.5499965247129</v>
       </c>
       <c r="AC3" t="n">
-        <v>503.5807222297757</v>
+        <v>556.8027687862397</v>
       </c>
       <c r="AD3" t="n">
-        <v>406881.040924651</v>
+        <v>449883.1669932368</v>
       </c>
       <c r="AE3" t="n">
-        <v>556712.5905177636</v>
+        <v>615549.9965247129</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.449789132626768e-06</v>
+        <v>4.910995205217184e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.14722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>503580.7222297757</v>
+        <v>556802.7687862397</v>
       </c>
     </row>
   </sheetData>
@@ -7494,28 +7494,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1048.020185587999</v>
+        <v>1106.90578556244</v>
       </c>
       <c r="AB2" t="n">
-        <v>1433.947453308959</v>
+        <v>1514.517329043312</v>
       </c>
       <c r="AC2" t="n">
-        <v>1297.093520923042</v>
+        <v>1369.97392079784</v>
       </c>
       <c r="AD2" t="n">
-        <v>1048020.185587999</v>
+        <v>1106905.78556244</v>
       </c>
       <c r="AE2" t="n">
-        <v>1433947.453308959</v>
+        <v>1514517.329043312</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.651766293624683e-06</v>
+        <v>2.925400843641905e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.07361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1297093.520923042</v>
+        <v>1369973.92079784</v>
       </c>
     </row>
     <row r="3">
@@ -7600,28 +7600,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>506.8744611781901</v>
+        <v>555.8603790451932</v>
       </c>
       <c r="AB3" t="n">
-        <v>693.5279995070164</v>
+        <v>760.5526934388231</v>
       </c>
       <c r="AC3" t="n">
-        <v>627.3386606067266</v>
+        <v>687.9666118194306</v>
       </c>
       <c r="AD3" t="n">
-        <v>506874.4611781901</v>
+        <v>555860.3790451932</v>
       </c>
       <c r="AE3" t="n">
-        <v>693527.9995070164</v>
+        <v>760552.6934388231</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.437921841075158e-06</v>
+        <v>4.317740734958245e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.858333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>627338.6606067267</v>
+        <v>687966.6118194306</v>
       </c>
     </row>
     <row r="4">
@@ -7706,28 +7706,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>434.0476263289878</v>
+        <v>473.219381960227</v>
       </c>
       <c r="AB4" t="n">
-        <v>593.883111173139</v>
+        <v>647.4796353636933</v>
       </c>
       <c r="AC4" t="n">
-        <v>537.2037405629555</v>
+        <v>585.6850877079573</v>
       </c>
       <c r="AD4" t="n">
-        <v>434047.6263289878</v>
+        <v>473219.381960227</v>
       </c>
       <c r="AE4" t="n">
-        <v>593883.1111731391</v>
+        <v>647479.6353636933</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.626686246653654e-06</v>
+        <v>4.652056523735545e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.220833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>537203.7405629555</v>
+        <v>585685.0877079574</v>
       </c>
     </row>
     <row r="5">
@@ -7812,28 +7812,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>436.0581271152518</v>
+        <v>475.2298827464909</v>
       </c>
       <c r="AB5" t="n">
-        <v>596.6339670459403</v>
+        <v>650.2304912364945</v>
       </c>
       <c r="AC5" t="n">
-        <v>539.692058612107</v>
+        <v>588.1734057571089</v>
       </c>
       <c r="AD5" t="n">
-        <v>436058.1271152518</v>
+        <v>475229.8827464909</v>
       </c>
       <c r="AE5" t="n">
-        <v>596633.9670459402</v>
+        <v>650230.4912364945</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.626997225905019e-06</v>
+        <v>4.652607291097618e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.220833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>539692.058612107</v>
+        <v>588173.4057571088</v>
       </c>
     </row>
     <row r="6">
@@ -7918,28 +7918,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>437.1059218831875</v>
+        <v>476.2776775144267</v>
       </c>
       <c r="AB6" t="n">
-        <v>598.0676060728726</v>
+        <v>651.6641302634268</v>
       </c>
       <c r="AC6" t="n">
-        <v>540.9888731424339</v>
+        <v>589.4702202874358</v>
       </c>
       <c r="AD6" t="n">
-        <v>437105.9218831875</v>
+        <v>476277.6775144267</v>
       </c>
       <c r="AE6" t="n">
-        <v>598067.6060728726</v>
+        <v>651664.1302634268</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.63088446654708e-06</v>
+        <v>4.659491883123509e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.208333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>540988.8731424339</v>
+        <v>589470.2202874358</v>
       </c>
     </row>
   </sheetData>
@@ -8215,28 +8215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1330.936396680448</v>
+        <v>1410.868589376481</v>
       </c>
       <c r="AB2" t="n">
-        <v>1821.045894707989</v>
+        <v>1930.412647114165</v>
       </c>
       <c r="AC2" t="n">
-        <v>1647.247830371023</v>
+        <v>1746.176773424755</v>
       </c>
       <c r="AD2" t="n">
-        <v>1330936.396680448</v>
+        <v>1410868.589376481</v>
       </c>
       <c r="AE2" t="n">
-        <v>1821045.894707988</v>
+        <v>1930412.647114165</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.453408077493005e-06</v>
+        <v>2.534616776710867e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.55833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1647247.830371023</v>
+        <v>1746176.773424755</v>
       </c>
     </row>
     <row r="3">
@@ -8321,28 +8321,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>600.9771347169865</v>
+        <v>650.8175009855225</v>
       </c>
       <c r="AB3" t="n">
-        <v>822.2834289597549</v>
+        <v>890.4772168901419</v>
       </c>
       <c r="AC3" t="n">
-        <v>743.8058525818763</v>
+        <v>805.4913211027695</v>
       </c>
       <c r="AD3" t="n">
-        <v>600977.1347169864</v>
+        <v>650817.5009855225</v>
       </c>
       <c r="AE3" t="n">
-        <v>822283.4289597549</v>
+        <v>890477.2168901419</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.275939546086793e-06</v>
+        <v>3.969039835145035e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.297222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>743805.8525818762</v>
+        <v>805491.3211027695</v>
       </c>
     </row>
     <row r="4">
@@ -8427,28 +8427,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>460.7983375859962</v>
+        <v>500.7218530152782</v>
       </c>
       <c r="AB4" t="n">
-        <v>630.4846144730673</v>
+        <v>685.1097295846052</v>
       </c>
       <c r="AC4" t="n">
-        <v>570.312047758471</v>
+        <v>619.7238185505943</v>
       </c>
       <c r="AD4" t="n">
-        <v>460798.3375859962</v>
+        <v>500721.8530152782</v>
       </c>
       <c r="AE4" t="n">
-        <v>630484.6144730672</v>
+        <v>685109.7295846052</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.577437930296295e-06</v>
+        <v>4.494826690607383e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.209722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>570312.047758471</v>
+        <v>619723.8185505943</v>
       </c>
     </row>
     <row r="5">
@@ -8533,28 +8533,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>449.701120182392</v>
+        <v>489.624635611674</v>
       </c>
       <c r="AB5" t="n">
-        <v>615.3009120467766</v>
+        <v>669.9260271583146</v>
       </c>
       <c r="AC5" t="n">
-        <v>556.5774565812853</v>
+        <v>605.9892273734087</v>
       </c>
       <c r="AD5" t="n">
-        <v>449701.120182392</v>
+        <v>489624.635611674</v>
       </c>
       <c r="AE5" t="n">
-        <v>615300.9120467766</v>
+        <v>669926.0271583146</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.607603003602754e-06</v>
+        <v>4.547431944463647e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.113888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>556577.4565812853</v>
+        <v>605989.2273734086</v>
       </c>
     </row>
     <row r="6">
@@ -8639,28 +8639,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>451.6444042885646</v>
+        <v>491.5679197178466</v>
       </c>
       <c r="AB6" t="n">
-        <v>617.959799092486</v>
+        <v>672.584914204024</v>
       </c>
       <c r="AC6" t="n">
-        <v>558.9825831791237</v>
+        <v>608.394353971247</v>
       </c>
       <c r="AD6" t="n">
-        <v>451644.4042885646</v>
+        <v>491567.9197178466</v>
       </c>
       <c r="AE6" t="n">
-        <v>617959.799092486</v>
+        <v>672584.914204024</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.607603003602754e-06</v>
+        <v>4.547431944463647e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.113888888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>558982.5831791237</v>
+        <v>608394.353971247</v>
       </c>
     </row>
   </sheetData>
@@ -8936,28 +8936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2201.888340878719</v>
+        <v>2294.839917447342</v>
       </c>
       <c r="AB2" t="n">
-        <v>3012.720768448205</v>
+        <v>3139.901216243546</v>
       </c>
       <c r="AC2" t="n">
-        <v>2725.19092668755</v>
+        <v>2840.233451044178</v>
       </c>
       <c r="AD2" t="n">
-        <v>2201888.340878719</v>
+        <v>2294839.917447342</v>
       </c>
       <c r="AE2" t="n">
-        <v>3012720.768448205</v>
+        <v>3139901.216243546</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.10729126537453e-06</v>
+        <v>1.882321763881395e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.44444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>2725190.92668755</v>
+        <v>2840233.451044178</v>
       </c>
     </row>
     <row r="3">
@@ -9042,28 +9042,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>790.7509939698436</v>
+        <v>842.3528692430699</v>
       </c>
       <c r="AB3" t="n">
-        <v>1081.940395421301</v>
+        <v>1152.544357684198</v>
       </c>
       <c r="AC3" t="n">
-        <v>978.681522595174</v>
+        <v>1042.547141792983</v>
       </c>
       <c r="AD3" t="n">
-        <v>790750.9939698436</v>
+        <v>842352.8692430699</v>
       </c>
       <c r="AE3" t="n">
-        <v>1081940.395421301</v>
+        <v>1152544.357684198</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.999300404253933e-06</v>
+        <v>3.398678180840829e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.21527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>978681.522595174</v>
+        <v>1042547.141792983</v>
       </c>
     </row>
     <row r="4">
@@ -9148,28 +9148,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>590.7042128323341</v>
+        <v>642.3059985970093</v>
       </c>
       <c r="AB4" t="n">
-        <v>808.2275640278457</v>
+        <v>878.8314038211943</v>
       </c>
       <c r="AC4" t="n">
-        <v>731.0914596715381</v>
+        <v>794.9569680881209</v>
       </c>
       <c r="AD4" t="n">
-        <v>590704.2128323341</v>
+        <v>642305.9985970093</v>
       </c>
       <c r="AE4" t="n">
-        <v>808227.5640278457</v>
+        <v>878831.4038211943</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.331046631967736e-06</v>
+        <v>3.962624781015654e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.761111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>731091.4596715381</v>
+        <v>794956.9680881209</v>
       </c>
     </row>
     <row r="5">
@@ -9254,28 +9254,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>506.0333403695922</v>
+        <v>547.2977903189692</v>
       </c>
       <c r="AB5" t="n">
-        <v>692.3771409090617</v>
+        <v>748.8369817888495</v>
       </c>
       <c r="AC5" t="n">
-        <v>626.2976383381208</v>
+        <v>677.3690312462259</v>
       </c>
       <c r="AD5" t="n">
-        <v>506033.3403695922</v>
+        <v>547297.7903189692</v>
       </c>
       <c r="AE5" t="n">
-        <v>692377.1409090618</v>
+        <v>748836.9817888495</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.508683796452787e-06</v>
+        <v>4.264596187492245e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.141666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>626297.6383381208</v>
+        <v>677369.0312462258</v>
       </c>
     </row>
     <row r="6">
@@ -9360,28 +9360,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>471.916744924959</v>
+        <v>523.4331898350625</v>
       </c>
       <c r="AB6" t="n">
-        <v>645.6973099037493</v>
+        <v>716.1843825749003</v>
       </c>
       <c r="AC6" t="n">
-        <v>584.0728648884011</v>
+        <v>647.8327502730451</v>
       </c>
       <c r="AD6" t="n">
-        <v>471916.744924959</v>
+        <v>523433.1898350625</v>
       </c>
       <c r="AE6" t="n">
-        <v>645697.3099037494</v>
+        <v>716184.3825749003</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.56176907491231e-06</v>
+        <v>4.354837642573412e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.972222222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>584072.8648884011</v>
+        <v>647832.7502730452</v>
       </c>
     </row>
     <row r="7">
@@ -9466,28 +9466,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>473.4665129825962</v>
+        <v>524.9829578926997</v>
       </c>
       <c r="AB7" t="n">
-        <v>647.81777093115</v>
+        <v>718.3048436023007</v>
       </c>
       <c r="AC7" t="n">
-        <v>585.9909520914323</v>
+        <v>649.7508374760762</v>
       </c>
       <c r="AD7" t="n">
-        <v>473466.5129825962</v>
+        <v>524982.9578926996</v>
       </c>
       <c r="AE7" t="n">
-        <v>647817.7709311499</v>
+        <v>718304.8436023007</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.562063176178014e-06</v>
+        <v>4.35533759523314e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.972222222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>585990.9520914323</v>
+        <v>649750.8374760762</v>
       </c>
     </row>
     <row r="8">
@@ -9572,28 +9572,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>474.0662643324684</v>
+        <v>525.5827092425719</v>
       </c>
       <c r="AB8" t="n">
-        <v>648.6383771872073</v>
+        <v>719.1254498583581</v>
       </c>
       <c r="AC8" t="n">
-        <v>586.7332408381396</v>
+        <v>650.4931262227835</v>
       </c>
       <c r="AD8" t="n">
-        <v>474066.2643324684</v>
+        <v>525582.709242572</v>
       </c>
       <c r="AE8" t="n">
-        <v>648638.3771872073</v>
+        <v>719125.4498583581</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.566327644530718e-06</v>
+        <v>4.362586908799218e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.958333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>586733.2408381397</v>
+        <v>650493.1262227836</v>
       </c>
     </row>
   </sheetData>
@@ -9869,28 +9869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>809.1297322158917</v>
+        <v>866.7786103828156</v>
       </c>
       <c r="AB2" t="n">
-        <v>1107.086995902251</v>
+        <v>1185.964734299245</v>
       </c>
       <c r="AC2" t="n">
-        <v>1001.428166819698</v>
+        <v>1072.777924569683</v>
       </c>
       <c r="AD2" t="n">
-        <v>809129.7322158917</v>
+        <v>866778.6103828156</v>
       </c>
       <c r="AE2" t="n">
-        <v>1107086.995902251</v>
+        <v>1185964.734299245</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.876900059301856e-06</v>
+        <v>3.384494956443297e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.77222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1001428.166819698</v>
+        <v>1072777.924569683</v>
       </c>
     </row>
     <row r="3">
@@ -9975,28 +9975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>429.059046830815</v>
+        <v>467.4063809294104</v>
       </c>
       <c r="AB3" t="n">
-        <v>587.057516623144</v>
+        <v>639.5260309018239</v>
       </c>
       <c r="AC3" t="n">
-        <v>531.0295711770299</v>
+        <v>578.4905640929748</v>
       </c>
       <c r="AD3" t="n">
-        <v>429059.046830815</v>
+        <v>467406.3809294104</v>
       </c>
       <c r="AE3" t="n">
-        <v>587057.516623144</v>
+        <v>639526.0309018239</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.607742479409733e-06</v>
+        <v>4.702376786406046e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.473611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>531029.5711770299</v>
+        <v>578490.5640929748</v>
       </c>
     </row>
     <row r="4">
@@ -10081,28 +10081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>419.9473882998767</v>
+        <v>458.2947223984721</v>
       </c>
       <c r="AB4" t="n">
-        <v>574.5905434431101</v>
+        <v>627.0590577217899</v>
       </c>
       <c r="AC4" t="n">
-        <v>519.7524284197916</v>
+        <v>567.2134213357365</v>
       </c>
       <c r="AD4" t="n">
-        <v>419947.3882998767</v>
+        <v>458294.7223984721</v>
       </c>
       <c r="AE4" t="n">
-        <v>574590.5434431101</v>
+        <v>627059.0577217899</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.639400651286413e-06</v>
+        <v>4.759463961887671e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.370833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>519752.4284197916</v>
+        <v>567213.4213357365</v>
       </c>
     </row>
     <row r="5">
@@ -10187,28 +10187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>421.8904939669061</v>
+        <v>460.2378280655016</v>
       </c>
       <c r="AB5" t="n">
-        <v>577.2491863405118</v>
+        <v>629.7177006191916</v>
       </c>
       <c r="AC5" t="n">
-        <v>522.157334170494</v>
+        <v>569.6183270864389</v>
       </c>
       <c r="AD5" t="n">
-        <v>421890.4939669061</v>
+        <v>460237.8280655016</v>
       </c>
       <c r="AE5" t="n">
-        <v>577249.1863405118</v>
+        <v>629717.7006191916</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.63955973757725e-06</v>
+        <v>4.759750832116221e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.370833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>522157.334170494</v>
+        <v>569618.3270864389</v>
       </c>
     </row>
     <row r="6">
@@ -10293,28 +10293,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>423.2444644687423</v>
+        <v>461.5917985673377</v>
       </c>
       <c r="AB6" t="n">
-        <v>579.1017485140867</v>
+        <v>631.5702627927666</v>
       </c>
       <c r="AC6" t="n">
-        <v>523.8330904103103</v>
+        <v>571.2940833262552</v>
       </c>
       <c r="AD6" t="n">
-        <v>423244.4644687423</v>
+        <v>461591.7985673377</v>
       </c>
       <c r="AE6" t="n">
-        <v>579101.7485140867</v>
+        <v>631570.2627927666</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.643218722266515e-06</v>
+        <v>4.766348847372892e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.359722222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>523833.0904103104</v>
+        <v>571294.0833262552</v>
       </c>
     </row>
   </sheetData>
@@ -10590,28 +10590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>536.3524662109129</v>
+        <v>582.5258173622735</v>
       </c>
       <c r="AB2" t="n">
-        <v>733.8611064705869</v>
+        <v>797.0375225403653</v>
       </c>
       <c r="AC2" t="n">
-        <v>663.8224324495652</v>
+        <v>720.9693800383009</v>
       </c>
       <c r="AD2" t="n">
-        <v>536352.4662109129</v>
+        <v>582525.8173622736</v>
       </c>
       <c r="AE2" t="n">
-        <v>733861.106470587</v>
+        <v>797037.5225403653</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.289189496067484e-06</v>
+        <v>4.270895876863853e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.05416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>663822.4324495653</v>
+        <v>720969.3800383009</v>
       </c>
     </row>
     <row r="3">
@@ -10696,28 +10696,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>399.8769666100453</v>
+        <v>446.0502282528548</v>
       </c>
       <c r="AB3" t="n">
-        <v>547.1293070425694</v>
+        <v>610.3056006427994</v>
       </c>
       <c r="AC3" t="n">
-        <v>494.9120538792312</v>
+        <v>552.0588906867401</v>
       </c>
       <c r="AD3" t="n">
-        <v>399876.9666100453</v>
+        <v>446050.2282528548</v>
       </c>
       <c r="AE3" t="n">
-        <v>547129.3070425694</v>
+        <v>610305.6006427994</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.629899906080134e-06</v>
+        <v>4.906552596339174e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.75138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>494912.0538792312</v>
+        <v>552058.8906867402</v>
       </c>
     </row>
     <row r="4">
@@ -10802,28 +10802,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>401.2818009425485</v>
+        <v>447.4550625853581</v>
       </c>
       <c r="AB4" t="n">
-        <v>549.0514633532168</v>
+        <v>612.2277569534469</v>
       </c>
       <c r="AC4" t="n">
-        <v>496.6507622893537</v>
+        <v>553.7975990968629</v>
       </c>
       <c r="AD4" t="n">
-        <v>401281.8009425485</v>
+        <v>447455.062585358</v>
       </c>
       <c r="AE4" t="n">
-        <v>549051.4633532169</v>
+        <v>612227.7569534469</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.633545640039413e-06</v>
+        <v>4.913354370574805e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.738888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>496650.7622893538</v>
+        <v>553797.5990968628</v>
       </c>
     </row>
     <row r="5">
@@ -10908,28 +10908,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>402.9549153968571</v>
+        <v>449.1281770396668</v>
       </c>
       <c r="AB5" t="n">
-        <v>551.3406923622023</v>
+        <v>614.5169859624324</v>
       </c>
       <c r="AC5" t="n">
-        <v>498.7215104946746</v>
+        <v>555.8683473021839</v>
       </c>
       <c r="AD5" t="n">
-        <v>402954.9153968571</v>
+        <v>449128.1770396667</v>
       </c>
       <c r="AE5" t="n">
-        <v>551340.6923622023</v>
+        <v>614516.9859624323</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.636859943638758e-06</v>
+        <v>4.919537801698106e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.729166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>498721.5104946747</v>
+        <v>555868.3473021839</v>
       </c>
     </row>
   </sheetData>
@@ -19498,28 +19498,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>402.5237128718949</v>
+        <v>447.1872339037661</v>
       </c>
       <c r="AB2" t="n">
-        <v>550.7507020442362</v>
+        <v>611.8613019355254</v>
       </c>
       <c r="AC2" t="n">
-        <v>498.1878280245987</v>
+        <v>553.4661180315288</v>
       </c>
       <c r="AD2" t="n">
-        <v>402523.7128718949</v>
+        <v>447187.2339037661</v>
       </c>
       <c r="AE2" t="n">
-        <v>550750.7020442361</v>
+        <v>611861.3019355254</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.563313897888488e-06</v>
+        <v>4.929347682566708e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.288888888888888</v>
       </c>
       <c r="AH2" t="n">
-        <v>498187.8280245987</v>
+        <v>553466.1180315288</v>
       </c>
     </row>
     <row r="3">
@@ -19604,28 +19604,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>398.8968631485065</v>
+        <v>434.7642432430284</v>
       </c>
       <c r="AB3" t="n">
-        <v>545.7882862473789</v>
+        <v>594.8636180498363</v>
       </c>
       <c r="AC3" t="n">
-        <v>493.6990182265991</v>
+        <v>538.0906692394908</v>
       </c>
       <c r="AD3" t="n">
-        <v>398896.8631485065</v>
+        <v>434764.2432430284</v>
       </c>
       <c r="AE3" t="n">
-        <v>545788.2862473789</v>
+        <v>594863.6180498363</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.586284810903739e-06</v>
+        <v>4.973521600139364e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.205555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>493699.0182265991</v>
+        <v>538090.6692394908</v>
       </c>
     </row>
     <row r="4">
@@ -19710,28 +19710,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>401.8459884380572</v>
+        <v>437.7133685325791</v>
       </c>
       <c r="AB4" t="n">
-        <v>549.8234095747675</v>
+        <v>598.8987413772251</v>
       </c>
       <c r="AC4" t="n">
-        <v>497.349035046953</v>
+        <v>541.7406860598446</v>
       </c>
       <c r="AD4" t="n">
-        <v>401845.9884380572</v>
+        <v>437713.368532579</v>
       </c>
       <c r="AE4" t="n">
-        <v>549823.4095747676</v>
+        <v>598898.741377225</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.586284810903739e-06</v>
+        <v>4.973521600139364e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.205555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>497349.035046953</v>
+        <v>541740.6860598446</v>
       </c>
     </row>
   </sheetData>
@@ -20007,28 +20007,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>419.8618860523381</v>
+        <v>461.8723093114024</v>
       </c>
       <c r="AB2" t="n">
-        <v>574.4735554959349</v>
+        <v>631.9540699680565</v>
       </c>
       <c r="AC2" t="n">
-        <v>519.6466056381013</v>
+        <v>571.6412604834123</v>
       </c>
       <c r="AD2" t="n">
-        <v>419861.8860523382</v>
+        <v>461872.3093114024</v>
       </c>
       <c r="AE2" t="n">
-        <v>574473.5554959349</v>
+        <v>631954.0699680565</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.292160155189676e-06</v>
+        <v>4.727807980548945e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.14861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>519646.6056381012</v>
+        <v>571641.2604834123</v>
       </c>
     </row>
     <row r="3">
@@ -20113,28 +20113,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>424.9779736054139</v>
+        <v>466.9883968644781</v>
       </c>
       <c r="AB3" t="n">
-        <v>581.4736121919066</v>
+        <v>638.9541266640282</v>
       </c>
       <c r="AC3" t="n">
-        <v>525.9785867476505</v>
+        <v>577.9732415929616</v>
       </c>
       <c r="AD3" t="n">
-        <v>424977.9736054139</v>
+        <v>466988.3968644781</v>
       </c>
       <c r="AE3" t="n">
-        <v>581473.6121919065</v>
+        <v>638954.1266640282</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.292160155189676e-06</v>
+        <v>4.727807980548945e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.14861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>525978.5867476505</v>
+        <v>577973.2415929616</v>
       </c>
     </row>
   </sheetData>
@@ -20410,28 +20410,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1176.720704509288</v>
+        <v>1246.0922863006</v>
       </c>
       <c r="AB2" t="n">
-        <v>1610.041181163238</v>
+        <v>1704.958439828303</v>
       </c>
       <c r="AC2" t="n">
-        <v>1456.381110540008</v>
+        <v>1542.239599255289</v>
       </c>
       <c r="AD2" t="n">
-        <v>1176720.704509289</v>
+        <v>1246092.2863006</v>
       </c>
       <c r="AE2" t="n">
-        <v>1610041.181163238</v>
+        <v>1704958.439828303</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.549622099979027e-06</v>
+        <v>2.722624900518088e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.79027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1456381.110540008</v>
+        <v>1542239.599255288</v>
       </c>
     </row>
     <row r="3">
@@ -20516,28 +20516,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>557.6064008856637</v>
+        <v>597.2473942749642</v>
       </c>
       <c r="AB3" t="n">
-        <v>762.9416775500021</v>
+        <v>817.1802335424446</v>
       </c>
       <c r="AC3" t="n">
-        <v>690.1275946399987</v>
+        <v>739.1896989728141</v>
       </c>
       <c r="AD3" t="n">
-        <v>557606.4008856637</v>
+        <v>597247.3942749642</v>
       </c>
       <c r="AE3" t="n">
-        <v>762941.677550002</v>
+        <v>817180.2335424447</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.356976598895714e-06</v>
+        <v>4.141114906775501e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.066666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>690127.5946399987</v>
+        <v>739189.6989728141</v>
       </c>
     </row>
     <row r="4">
@@ -20622,28 +20622,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>442.446730666342</v>
+        <v>482.0023832010709</v>
       </c>
       <c r="AB4" t="n">
-        <v>605.3751362698389</v>
+        <v>659.4969251400839</v>
       </c>
       <c r="AC4" t="n">
-        <v>547.5989829135848</v>
+        <v>596.5554642144613</v>
       </c>
       <c r="AD4" t="n">
-        <v>442446.730666342</v>
+        <v>482002.3832010709</v>
       </c>
       <c r="AE4" t="n">
-        <v>605375.1362698389</v>
+        <v>659496.9251400839</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.613477446941095e-06</v>
+        <v>4.591776778403309e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.176388888888887</v>
       </c>
       <c r="AH4" t="n">
-        <v>547598.9829135848</v>
+        <v>596555.4642144613</v>
       </c>
     </row>
     <row r="5">
@@ -20728,28 +20728,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>442.9294236032036</v>
+        <v>482.4850761379326</v>
       </c>
       <c r="AB5" t="n">
-        <v>606.0355780409625</v>
+        <v>660.1573669112073</v>
       </c>
       <c r="AC5" t="n">
-        <v>548.1963930490081</v>
+        <v>597.1528743498847</v>
       </c>
       <c r="AD5" t="n">
-        <v>442929.4236032036</v>
+        <v>482485.0761379326</v>
       </c>
       <c r="AE5" t="n">
-        <v>606035.5780409625</v>
+        <v>660157.3669112073</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.617170320578222e-06</v>
+        <v>4.598265011708089e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.165277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>548196.3930490081</v>
+        <v>597152.8743498847</v>
       </c>
     </row>
     <row r="6">
@@ -20834,28 +20834,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>443.6965552542878</v>
+        <v>483.2522077890168</v>
       </c>
       <c r="AB6" t="n">
-        <v>607.0852014094357</v>
+        <v>661.2069902796806</v>
       </c>
       <c r="AC6" t="n">
-        <v>549.1458418363501</v>
+        <v>598.1023231372264</v>
       </c>
       <c r="AD6" t="n">
-        <v>443696.5552542878</v>
+        <v>483252.2077890168</v>
       </c>
       <c r="AE6" t="n">
-        <v>607085.2014094357</v>
+        <v>661206.9902796806</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.621170933685108e-06</v>
+        <v>4.6052939311216e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.152777777777779</v>
       </c>
       <c r="AH6" t="n">
-        <v>549145.84183635</v>
+        <v>598102.3231372264</v>
       </c>
     </row>
   </sheetData>
@@ -21131,28 +21131,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1933.177666220853</v>
+        <v>2025.328234972001</v>
       </c>
       <c r="AB2" t="n">
-        <v>2645.058968702836</v>
+        <v>2771.143442264329</v>
       </c>
       <c r="AC2" t="n">
-        <v>2392.618253093415</v>
+        <v>2506.66940145887</v>
       </c>
       <c r="AD2" t="n">
-        <v>1933177.666220853</v>
+        <v>2025328.234972001</v>
       </c>
       <c r="AE2" t="n">
-        <v>2645058.968702836</v>
+        <v>2771143.442264329</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.189303932624777e-06</v>
+        <v>2.033577185909114e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.31666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2392618.253093415</v>
+        <v>2506669.40145887</v>
       </c>
     </row>
     <row r="3">
@@ -21237,28 +21237,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>732.2799416081409</v>
+        <v>793.6567005334909</v>
       </c>
       <c r="AB3" t="n">
-        <v>1001.937722019246</v>
+        <v>1085.916111332411</v>
       </c>
       <c r="AC3" t="n">
-        <v>906.3141920581534</v>
+        <v>982.2778017596789</v>
       </c>
       <c r="AD3" t="n">
-        <v>732279.9416081409</v>
+        <v>793656.700533491</v>
       </c>
       <c r="AE3" t="n">
-        <v>1001937.722019246</v>
+        <v>1085916.11133241</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.065750204379553e-06</v>
+        <v>3.53220263733771e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.969444444444443</v>
       </c>
       <c r="AH3" t="n">
-        <v>906314.1920581533</v>
+        <v>982277.801759679</v>
       </c>
     </row>
     <row r="4">
@@ -21343,28 +21343,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>557.705866310017</v>
+        <v>608.9100593175232</v>
       </c>
       <c r="AB4" t="n">
-        <v>763.077770531707</v>
+        <v>833.1376063741424</v>
       </c>
       <c r="AC4" t="n">
-        <v>690.2506990985377</v>
+        <v>753.624122537768</v>
       </c>
       <c r="AD4" t="n">
-        <v>557705.866310017</v>
+        <v>608910.0593175231</v>
       </c>
       <c r="AE4" t="n">
-        <v>763077.770531707</v>
+        <v>833137.6063741423</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.389728398218867e-06</v>
+        <v>4.086169243896919e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.616666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>690250.6990985377</v>
+        <v>753624.122537768</v>
       </c>
     </row>
     <row r="5">
@@ -21449,28 +21449,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>479.8504671809035</v>
+        <v>520.7968429245452</v>
       </c>
       <c r="AB5" t="n">
-        <v>656.5525787054561</v>
+        <v>712.5772164245133</v>
       </c>
       <c r="AC5" t="n">
-        <v>593.8921220711384</v>
+        <v>644.5698469973615</v>
       </c>
       <c r="AD5" t="n">
-        <v>479850.4671809035</v>
+        <v>520796.8429245452</v>
       </c>
       <c r="AE5" t="n">
-        <v>656552.5787054561</v>
+        <v>712577.2164245133</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.555646750121015e-06</v>
+        <v>4.369871135310994e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.058333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>593892.1220711384</v>
+        <v>644569.8469973615</v>
       </c>
     </row>
     <row r="6">
@@ -21555,28 +21555,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>476.2922720255886</v>
+        <v>517.2386477692303</v>
       </c>
       <c r="AB6" t="n">
-        <v>651.684099117463</v>
+        <v>707.7087368365201</v>
       </c>
       <c r="AC6" t="n">
-        <v>589.4882833420692</v>
+        <v>640.1660082682923</v>
       </c>
       <c r="AD6" t="n">
-        <v>476292.2720255886</v>
+        <v>517238.6477692303</v>
       </c>
       <c r="AE6" t="n">
-        <v>651684.099117463</v>
+        <v>707708.73683652</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.567656925727873e-06</v>
+        <v>4.390407197155981e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.020833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>589488.2833420691</v>
+        <v>640166.0082682923</v>
       </c>
     </row>
     <row r="7">
@@ -21661,28 +21661,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>476.9655879685338</v>
+        <v>517.9119637121755</v>
       </c>
       <c r="AB7" t="n">
-        <v>652.6053596952036</v>
+        <v>708.6299974142607</v>
       </c>
       <c r="AC7" t="n">
-        <v>590.3216201032676</v>
+        <v>640.9993450294908</v>
       </c>
       <c r="AD7" t="n">
-        <v>476965.5879685339</v>
+        <v>517911.9637121756</v>
       </c>
       <c r="AE7" t="n">
-        <v>652605.3596952036</v>
+        <v>708629.9974142608</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.571956865142674e-06</v>
+        <v>4.397759614359742e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.006944444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>590321.6201032676</v>
+        <v>640999.3450294908</v>
       </c>
     </row>
   </sheetData>
@@ -21958,28 +21958,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>460.5078122726698</v>
+        <v>517.3027193393083</v>
       </c>
       <c r="AB2" t="n">
-        <v>630.0871049223017</v>
+        <v>707.7964023853391</v>
       </c>
       <c r="AC2" t="n">
-        <v>569.9524759613224</v>
+        <v>640.2453071401715</v>
       </c>
       <c r="AD2" t="n">
-        <v>460507.8122726697</v>
+        <v>517302.7193393083</v>
       </c>
       <c r="AE2" t="n">
-        <v>630087.1049223017</v>
+        <v>707796.4023853391</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.995348552775268e-06</v>
+        <v>4.276950987108015e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.2625</v>
       </c>
       <c r="AH2" t="n">
-        <v>569952.4759613224</v>
+        <v>640245.3071401714</v>
       </c>
     </row>
   </sheetData>
@@ -22255,28 +22255,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>618.0558813659501</v>
+        <v>674.2400043618547</v>
       </c>
       <c r="AB2" t="n">
-        <v>845.6513235859923</v>
+        <v>922.5249193375602</v>
       </c>
       <c r="AC2" t="n">
-        <v>764.9435481420314</v>
+        <v>834.4804358078389</v>
       </c>
       <c r="AD2" t="n">
-        <v>618055.8813659501</v>
+        <v>674240.0043618547</v>
       </c>
       <c r="AE2" t="n">
-        <v>845651.3235859922</v>
+        <v>922524.9193375602</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.138083556843246e-06</v>
+        <v>3.939274707898936e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.60694444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>764943.5481420314</v>
+        <v>834480.4358078389</v>
       </c>
     </row>
     <row r="3">
@@ -22361,28 +22361,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>405.8808377930331</v>
+        <v>452.6867168138585</v>
       </c>
       <c r="AB3" t="n">
-        <v>555.3440684672364</v>
+        <v>619.3859370731765</v>
       </c>
       <c r="AC3" t="n">
-        <v>502.3428100030179</v>
+        <v>560.2726125525343</v>
       </c>
       <c r="AD3" t="n">
-        <v>405880.8377930331</v>
+        <v>452686.7168138585</v>
       </c>
       <c r="AE3" t="n">
-        <v>555344.0684672364</v>
+        <v>619385.9370731765</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.636474377547866e-06</v>
+        <v>4.857526171162326e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.602777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>502342.8100030179</v>
+        <v>560272.6125525343</v>
       </c>
     </row>
     <row r="4">
@@ -22467,28 +22467,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>407.169754507361</v>
+        <v>453.9756335281863</v>
       </c>
       <c r="AB4" t="n">
-        <v>557.1076211787719</v>
+        <v>621.149489784712</v>
       </c>
       <c r="AC4" t="n">
-        <v>503.9380517189263</v>
+        <v>561.8678542684427</v>
       </c>
       <c r="AD4" t="n">
-        <v>407169.754507361</v>
+        <v>453975.6335281864</v>
       </c>
       <c r="AE4" t="n">
-        <v>557107.6211787718</v>
+        <v>621149.4897847121</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.640230271675063e-06</v>
+        <v>4.864446152700681e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.590277777777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>503938.0517189263</v>
+        <v>561867.8542684427</v>
       </c>
     </row>
     <row r="5">
@@ -22573,28 +22573,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>408.54813324394</v>
+        <v>446.1464499988292</v>
       </c>
       <c r="AB5" t="n">
-        <v>558.9935797759374</v>
+        <v>610.4372554806454</v>
       </c>
       <c r="AC5" t="n">
-        <v>505.6440170745378</v>
+        <v>552.1779805716408</v>
       </c>
       <c r="AD5" t="n">
-        <v>408548.13324394</v>
+        <v>446146.4499988292</v>
       </c>
       <c r="AE5" t="n">
-        <v>558993.5797759374</v>
+        <v>610437.2554806453</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.6438228660576e-06</v>
+        <v>4.871065265476498e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.579166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>505644.0170745378</v>
+        <v>552177.9805716408</v>
       </c>
     </row>
   </sheetData>
@@ -22870,28 +22870,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>923.0003585108369</v>
+        <v>981.1976926102305</v>
       </c>
       <c r="AB2" t="n">
-        <v>1262.889810416479</v>
+        <v>1342.517970416445</v>
       </c>
       <c r="AC2" t="n">
-        <v>1142.36137938731</v>
+        <v>1214.389939555705</v>
       </c>
       <c r="AD2" t="n">
-        <v>923000.358510837</v>
+        <v>981197.6926102305</v>
       </c>
       <c r="AE2" t="n">
-        <v>1262889.810416479</v>
+        <v>1342517.970416446</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.760422031385516e-06</v>
+        <v>3.144865486497288e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.40416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1142361.37938731</v>
+        <v>1214389.939555705</v>
       </c>
     </row>
     <row r="3">
@@ -22976,28 +22976,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>464.7190353061743</v>
+        <v>513.2025156561145</v>
       </c>
       <c r="AB3" t="n">
-        <v>635.8490860627908</v>
+        <v>702.1863228177733</v>
       </c>
       <c r="AC3" t="n">
-        <v>575.1645417087547</v>
+        <v>635.170645692738</v>
       </c>
       <c r="AD3" t="n">
-        <v>464719.0353061743</v>
+        <v>513202.5156561146</v>
       </c>
       <c r="AE3" t="n">
-        <v>635849.0860627908</v>
+        <v>702186.3228177733</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.528454685071168e-06</v>
+        <v>4.516899772604215e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.636111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>575164.5417087546</v>
+        <v>635170.645692738</v>
       </c>
     </row>
     <row r="4">
@@ -23082,28 +23082,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>427.3157990853319</v>
+        <v>466.0856047029209</v>
       </c>
       <c r="AB4" t="n">
-        <v>584.6723281511115</v>
+        <v>637.7188866002064</v>
       </c>
       <c r="AC4" t="n">
-        <v>528.872021745135</v>
+        <v>576.8558911071606</v>
       </c>
       <c r="AD4" t="n">
-        <v>427315.799085332</v>
+        <v>466085.6047029209</v>
       </c>
       <c r="AE4" t="n">
-        <v>584672.3281511115</v>
+        <v>637718.8866002064</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.632850525817795e-06</v>
+        <v>4.703395323469108e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.294444444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>528872.0217451351</v>
+        <v>576855.8911071606</v>
       </c>
     </row>
     <row r="5">
@@ -23188,28 +23188,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>429.2765392882736</v>
+        <v>468.0463449058624</v>
       </c>
       <c r="AB5" t="n">
-        <v>587.355099398529</v>
+        <v>640.4016578476237</v>
       </c>
       <c r="AC5" t="n">
-        <v>531.298753069992</v>
+        <v>579.2826224320175</v>
       </c>
       <c r="AD5" t="n">
-        <v>429276.5392882736</v>
+        <v>468046.3449058625</v>
       </c>
       <c r="AE5" t="n">
-        <v>587355.0993985289</v>
+        <v>640401.6578476237</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.633007748469522e-06</v>
+        <v>4.703676190262579e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.293055555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>531298.7530699921</v>
+        <v>579282.6224320176</v>
       </c>
     </row>
     <row r="6">
@@ -23294,28 +23294,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>430.4239190378805</v>
+        <v>469.1937246554695</v>
       </c>
       <c r="AB6" t="n">
-        <v>588.9249949907633</v>
+        <v>641.971553439858</v>
       </c>
       <c r="AC6" t="n">
-        <v>532.7188200302659</v>
+        <v>580.7026893922914</v>
       </c>
       <c r="AD6" t="n">
-        <v>430423.9190378806</v>
+        <v>469193.7246554695</v>
       </c>
       <c r="AE6" t="n">
-        <v>588924.9949907633</v>
+        <v>641971.553439858</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.636781092110966e-06</v>
+        <v>4.710416993305887e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.281944444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>532718.8200302658</v>
+        <v>580702.6893922914</v>
       </c>
     </row>
   </sheetData>
